--- a/data/2.Estetica/leads_estetica_completo.xlsx
+++ b/data/2.Estetica/leads_estetica_completo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgar\OneDrive\Documentos\GitHub\Leads_sheacher\data\2.Estetica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9FB00-5320-445F-919C-C1980DEE636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED4BEF-DA92-4B34-9D57-3B7F21295FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="266">
   <si>
     <t>Nombre</t>
   </si>
@@ -828,6 +828,9 @@
   </si>
   <si>
     <t>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com</t>
+  </si>
+  <si>
+    <t>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1537,7 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com</v>
       </c>
@@ -1561,7 +1564,7 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es</v>
       </c>
@@ -1669,7 +1672,7 @@
       <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com</v>
       </c>
@@ -1723,7 +1726,7 @@
       <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com</v>
       </c>
@@ -1750,7 +1753,7 @@
       <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es</v>
       </c>
@@ -1777,7 +1780,7 @@
       <c r="G21" t="s">
         <v>13</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es</v>
       </c>
@@ -1804,7 +1807,7 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com</v>
       </c>
@@ -1831,7 +1834,7 @@
       <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com</v>
       </c>
@@ -1858,7 +1861,7 @@
       <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx</v>
       </c>
@@ -1885,7 +1888,7 @@
       <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com</v>
       </c>
@@ -1912,9 +1915,8 @@
       <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</v>
+      <c r="H26" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,8 +1942,8 @@
         <v>13</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com</v>
+        <f>E27</f>
+        <v>contacto@clinicaesvital.com</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1968,7 +1970,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,7 +1997,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,7 +2024,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2049,7 +2051,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2076,7 +2078,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2103,7 +2105,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,7 +2132,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,7 +2159,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,7 +2186,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,7 +2213,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2238,7 +2240,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2265,7 +2267,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2292,7 +2294,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2319,7 +2321,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2346,7 +2348,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2373,7 +2375,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2400,7 +2402,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,7 +2429,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2454,7 +2456,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2481,7 +2483,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2508,7 +2510,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2535,7 +2537,7 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2562,7 +2564,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,7 +2591,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2616,7 +2618,7 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2643,7 +2645,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2670,7 +2672,7 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,7 +2699,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2724,7 +2726,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2751,7 +2753,7 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,7 +2780,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2805,7 +2807,7 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,7 +2834,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2859,7 +2861,7 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2886,7 +2888,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2913,7 +2915,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2940,7 +2942,7 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,7 +2969,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2994,7 +2996,7 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3021,7 +3023,7 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" si="0"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3048,7 +3050,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H81" si="1">H67&amp;";"&amp;E68</f>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3075,7 +3077,7 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3102,7 +3104,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,7 +3131,7 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,7 +3158,7 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3183,7 +3185,7 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3210,7 +3212,7 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3237,7 +3239,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,7 +3266,7 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3291,7 +3293,7 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,7 +3320,7 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3345,7 +3347,7 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,7 +3374,7 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3399,7 +3401,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es;info@denovapharmaceutical.es</v>
+        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es;info@denovapharmaceutical.es</v>
       </c>
     </row>
   </sheetData>
